--- a/biology/Botanique/Jardins_de_Bomarzo/Jardins_de_Bomarzo.xlsx
+++ b/biology/Botanique/Jardins_de_Bomarzo/Jardins_de_Bomarzo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Jardins de Bomarzo, le Sacro Bosco appelés aussi Parc des monstres (Parco dei Mostri en italien), sont un complexe monumental situé dans la commune de Bomarzo dans la province de Viterbe au nord du Latium en Italie.
@@ -515,9 +527,11 @@
           <t>Création des jardins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est communément admis que le parc a été construit par Pier Francesco Orsini dit Vicino Orsini (1528–1570[1], ou 1574[2], ou 1585[3]) qui en aurait démarré la réalisation vers 1550. Certains historiens[réf. nécessaire] estiment toutefois que son père Giancorrado Orsini, condottiere et seigneur de Bomarzo, aurait pu commencer à réaliser les jardins plus tôt.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est communément admis que le parc a été construit par Pier Francesco Orsini dit Vicino Orsini (1528–1570, ou 1574, ou 1585) qui en aurait démarré la réalisation vers 1550. Certains historiens[réf. nécessaire] estiment toutefois que son père Giancorrado Orsini, condottiere et seigneur de Bomarzo, aurait pu commencer à réaliser les jardins plus tôt.
 Vicino Orsini était un condottiere qui participa à de nombreuses campagnes en Italie, en Allemagne et en France. Il fut fait prisonnier en 1556 et arrêta sa carrière militaire à sa libération en 1557. Il était également un homme cultivé qui entretenait des relations suivies avec les intellectuels de son temps.
 En 1554, il épousa Giulia Farnèse (morte en 1560), fille de Galeazzo Farnèse. Giulia était une nièce de l’autre Giulia Farnèse qui fut maîtresse du pape Alexandre VI.
 Il est probable que les jardins furent construits en trois étapes:
@@ -557,12 +571,49 @@
           <t>Description des jardins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par un chemin à travers un verger, le visiteur arrive à l’entrée, une porte architecturée, surmontée de l’emblème des Orsini, et est accueilli par deux sphinx puis par un petit ruisseau, appelé Fosso della Concia.
 La trentaine de sculptures et de bâtiments, comprise dans une zone de 2 km2 au nord-est du ruisseau, est taillée dans une roche volcanique grise/marron, le pépérin, qu'on trouve en bloc ou en inclusion dans le tuf volcanique.
-Les principales sculptures
-Protée, divinité marine ayant le don de métamorphose, dont la tête sortant du sol porte sur son crâne les armoiries de la famille Orsini (les commanditaires du jardin),
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardins_de_Bomarzo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_de_Bomarzo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description des jardins</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les principales sculptures</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Protée, divinité marine ayant le don de métamorphose, dont la tête sortant du sol porte sur son crâne les armoiries de la famille Orsini (les commanditaires du jardin),
 Deux sphinx sur des piédestaux se faisant face ;
 Hercule écartelant Cacus qu'il maintient la tête en bas (ou peut-être Roland écartelant un berger) ; La figure d'Hercule pourrait être un portrait de Vicino Orsini.
 Une tortue portant sur sa carapace une renommée ailée en équilibre précaire sur un globe terrestre soufflant dans deux trompettes (détruites) ;
@@ -571,7 +622,7 @@
 Les Trois Grâces en bas-relief sur l'une des parois d'un nymphée ;
 Vénus sur une conque retournée dans une niche ;
 Une nymphe endormie sur laquelle veille un petit chien ;
-Échidna[4] (ou de manière impropre « sirène à queue bifide ») ;
+Échidna (ou de manière impropre « sirène à queue bifide ») ;
 Un lion et une lionne ;
 Une harpie à pattes de lion et queue de sirène ;
 Des ours (emblème des Orsini: Ursinus) présentant leurs armoiries ;
@@ -590,16 +641,85 @@
 			La Tortue.
 			Protée-Glaucos.
 			La Maison penchée.
-Les constructions et bâtiments
-Un petit mausolée effondré reprenant les ornements de la Rome antique et des niches étrusques ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardins_de_Bomarzo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_de_Bomarzo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description des jardins</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les constructions et bâtiments</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un petit mausolée effondré reprenant les ornements de la Rome antique et des niches étrusques ;
 Un nymphée ;
 Un petit théâtre de verdure ;
-La Maison penchée : dédiée au cardinal Cristoforo Madruzzo, ami de Vicino Orsini et de sa femme[5];
+La Maison penchée : dédiée au cardinal Cristoforo Madruzzo, ami de Vicino Orsini et de sa femme;
 Un banc dont le dossier présente les armoiries des Orsini ;
 Un banc étrusque abrité sous un arc sur lequel est gravé cette inscription “Voi che pel mondo gite errando, vaghi/ di veder meraviglie alte e stupende, / venite qua dove son facce orrende / elefanti, leoni, orsi, orchi e draghi” ;
-Le Temple de l'Éternité : le mémorial à Giulia Farnese situé au sommet du jardin. C’est un bâtiment octogonal surmonté d'une coupole et d'un clocheton en son sommet. Il est précédé d'un portique de plan carré accolé composé d'une façade présentant un fronton triangulaire percé en son centre d'un arc se prolongeant dans la profondeur du bâtiment et d'une colonnade supportant l'ensemble. On retrouve ces colonnes, mais cette fois engagées (c'est-à-dire, émergeant des parois), autour de la rotonde. L'ensemble est un mélange de style grec (cf. fronton et colonnade du temple de Ségeste), classique (cf. le tempietto se trouvant dans la cathédrale Saint-Martin de Lucques) et renaissance. Il abrite aujourd’hui les sépultures de Giovanni Bettini et Tina Severi, restaurateurs des jardins.
-Les inscriptions
-De nombreuses inscriptions sont gravées sur les socles des statues, sur des plaques ou sur des pans de mur. Elles sont souvent difficiles à interpréter car elles font référence à des milieux littéraires propres à l'époque ou à des devises adoptées par les Orsini et par Vicino lui-même. Certaines sont issues de textes antiques ou des poètes de la Renaissance voire des proches du Condottiere et sont souvent équivoques ou symboliques à l'instar des textes hermétiques.
+Le Temple de l'Éternité : le mémorial à Giulia Farnese situé au sommet du jardin. C’est un bâtiment octogonal surmonté d'une coupole et d'un clocheton en son sommet. Il est précédé d'un portique de plan carré accolé composé d'une façade présentant un fronton triangulaire percé en son centre d'un arc se prolongeant dans la profondeur du bâtiment et d'une colonnade supportant l'ensemble. On retrouve ces colonnes, mais cette fois engagées (c'est-à-dire, émergeant des parois), autour de la rotonde. L'ensemble est un mélange de style grec (cf. fronton et colonnade du temple de Ségeste), classique (cf. le tempietto se trouvant dans la cathédrale Saint-Martin de Lucques) et renaissance. Il abrite aujourd’hui les sépultures de Giovanni Bettini et Tina Severi, restaurateurs des jardins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardins_de_Bomarzo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_de_Bomarzo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description des jardins</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les inscriptions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses inscriptions sont gravées sur les socles des statues, sur des plaques ou sur des pans de mur. Elles sont souvent difficiles à interpréter car elles font référence à des milieux littéraires propres à l'époque ou à des devises adoptées par les Orsini et par Vicino lui-même. Certaines sont issues de textes antiques ou des poètes de la Renaissance voire des proches du Condottiere et sont souvent équivoques ou symboliques à l'instar des textes hermétiques.
 Sur la panca étrusque : Voi che pel mondo gite erando vaghi / Di veder maraviglie alte e stupende / Venite qua, dove son faccie horrende / Elefanti leoni orsi orchi et draghi - « Vous qui allez errants par le monde / Pour contempler de hautes et stupéfiantes merveilles, / Venez ici ! Vous y trouverez des faces terribles / Éléphants, lions, ours, ogres et dragons. »
 Sol per sfogare il Core - « Juste pour libérer le cœur. »
 Ogni Pensiero Vola - « Chaque pensée s'envole ».
@@ -609,31 +729,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jardins_de_Bomarzo</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardins_de_Bomarzo</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Symbolisme et interprétation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins présentent un ensemble de thèmes de la mythologie grecque et de la Renaissance.
 Différentes scènes peuvent évoquer des épisodes d’œuvres baroques telles que le Songe de Poliphile de Francesco Colonna, ou le poème Floridant de Bernardo Tasso ou encore le Orlando furioso de L'Arioste.
@@ -642,31 +764,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jardins_de_Bomarzo</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardins_de_Bomarzo</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Les jardins de Bomarzo dans les arts</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les jardins de même que la vie de Vicino Orsini ont inspiré de nombreux artistes modernes :                                      
 André Pieyre de Mandiargues décrit le jardin dans un essai, Les Monstres de Bomarzo, dans son livre le Belvédère.
